--- a/store.xlsx
+++ b/store.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airowlgasga/Sites/stores-to-pin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D2474-698E-2E4D-987B-933AE8DA4C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5CD55-2AA4-0B4A-A226-0BBAD2B5CCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Store fisici" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="127">
   <si>
     <t>title</t>
   </si>
@@ -31,9 +31,6 @@
     <t>45.47559427935996, 9.185045098148306</t>
   </si>
   <si>
-    <t>45.45372190723332, 9.163660486507869</t>
-  </si>
-  <si>
     <t>45.45417723224606, 9.159674899999997</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>45.483038594305214, 9.14821656931235</t>
   </si>
   <si>
-    <t>45.459146618330955, 9.182291471164044</t>
-  </si>
-  <si>
     <t>45.478016833662814, 9.16075041349213</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Via Solari, 35</t>
   </si>
   <si>
-    <t>Via Pietro Tempesta, 4</t>
-  </si>
-  <si>
     <t>Via Privata Giovanni Zambelli 20</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>Piazza Lina Bo Bardi,1</t>
   </si>
   <si>
-    <t>Via Valtellina, 7</t>
-  </si>
-  <si>
     <t>Via Enrico Besana, 12</t>
   </si>
   <si>
@@ -184,9 +172,6 @@
     <t>Via Valenza, 2</t>
   </si>
   <si>
-    <t>Via Bergognone, 59</t>
-  </si>
-  <si>
     <t>Via Moncucco, 35</t>
   </si>
   <si>
@@ -250,15 +235,9 @@
     <t>ONITSUKA TIGER</t>
   </si>
   <si>
-    <t>FENDI</t>
-  </si>
-  <si>
     <t>DEL CORE</t>
   </si>
   <si>
-    <t>MARCO RAMBALDI</t>
-  </si>
-  <si>
     <t>N. 21</t>
   </si>
   <si>
@@ -299,9 +278,6 @@
   </si>
   <si>
     <t>TOM FORD</t>
-  </si>
-  <si>
-    <t>TOD'S</t>
   </si>
   <si>
     <t>PHILOSOPHY DI 
@@ -339,9 +315,6 @@
   </si>
   <si>
     <t>FERRAGAMO</t>
-  </si>
-  <si>
-    <t>ANDREADAMO</t>
   </si>
   <si>
     <t>DOLCE &amp; GABBANA</t>
@@ -447,11 +420,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -825,7 +800,7 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -844,13 +819,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -874,16 +849,16 @@
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E2" s="16">
         <v>45189</v>
@@ -891,33 +866,29 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E3" s="16">
         <v>45189</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E4" s="16">
         <v>45189</v>
@@ -925,33 +896,29 @@
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E5" s="16">
         <v>45189</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E6" s="16">
         <v>45189</v>
@@ -959,50 +926,46 @@
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>122</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="16">
         <v>45189</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="16">
-        <v>45189</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E9" s="16">
         <v>45189</v>
@@ -1010,33 +973,29 @@
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>125</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="16">
         <v>45189</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E11" s="16">
         <v>45190</v>
@@ -1044,16 +1003,16 @@
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E12" s="16">
         <v>45190</v>
@@ -1061,16 +1020,16 @@
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E13" s="16">
         <v>45190</v>
@@ -1078,33 +1037,31 @@
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="16">
-        <v>45190</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E15" s="16">
         <v>45190</v>
@@ -1112,16 +1069,16 @@
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E16" s="16">
         <v>45190</v>
@@ -1129,16 +1086,14 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>54</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E17" s="16">
         <v>45190</v>
@@ -1146,16 +1101,16 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E18" s="16">
         <v>45190</v>
@@ -1163,16 +1118,16 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E19" s="16">
         <v>45190</v>
@@ -1180,33 +1135,31 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E20" s="16">
         <v>45190</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E21" s="16">
         <v>45191</v>
@@ -1214,16 +1167,16 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E22" s="16">
         <v>45191</v>
@@ -1231,16 +1184,16 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E23" s="16">
         <v>45191</v>
@@ -1248,16 +1201,16 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E24" s="16">
         <v>45191</v>
@@ -1265,12 +1218,12 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E25" s="16">
         <v>45191</v>
@@ -1278,16 +1231,16 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E26" s="16">
         <v>45191</v>
@@ -1295,16 +1248,16 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E27" s="16">
         <v>45191</v>
@@ -1312,16 +1265,16 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E28" s="16">
         <v>45191</v>
@@ -1329,12 +1282,12 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E29" s="16">
         <v>45191</v>
@@ -1342,16 +1295,16 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E30" s="16">
         <v>45191</v>
@@ -1359,16 +1312,16 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E31" s="16">
         <v>45191</v>
@@ -1376,16 +1329,14 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E32" s="16">
         <v>45192</v>
@@ -1393,33 +1344,31 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E33" s="16">
         <v>45192</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E34" s="16">
         <v>45192</v>
@@ -1427,33 +1376,31 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>119</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D35" s="10"/>
       <c r="E35" s="16">
         <v>45192</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E36" s="16">
         <v>45192</v>
@@ -1461,16 +1408,16 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E37" s="16">
         <v>45192</v>
@@ -1478,12 +1425,12 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E38" s="16">
         <v>45192</v>
@@ -1491,16 +1438,16 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E39" s="16">
         <v>45192</v>
@@ -1508,12 +1455,12 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E40" s="16">
         <v>45192</v>
@@ -1521,16 +1468,16 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E41" s="16">
         <v>45193</v>
@@ -1538,16 +1485,16 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E42" s="16">
         <v>45193</v>
